--- a/data/trans_bre/P57_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.51688715699094</v>
+        <v>-13.95266126496529</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.31147395553628</v>
+        <v>-11.93787914025041</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3837092485280726</v>
+        <v>-0.3970342915378443</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4132281323082382</v>
+        <v>-0.4256549446505677</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.393215581270989</v>
+        <v>1.76526350691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.265467174630234</v>
+        <v>1.492731955663455</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.05312345026082635</v>
+        <v>0.06703310384440299</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.06600299152209119</v>
+        <v>0.08526857874750585</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>-0.08458144260402098</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.06505466003310452</v>
+        <v>-0.06505466003310453</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.207424990690122</v>
+        <v>-8.936345425651787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.08709882159065</v>
+        <v>-10.83445839271376</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2178408284577387</v>
+        <v>-0.238286461136256</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1426640919595888</v>
+        <v>-0.1403054422442192</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.056831285249356</v>
+        <v>2.979385340323259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.657647355029539</v>
+        <v>1.03912332390494</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1042508056935181</v>
+        <v>0.09389665021031758</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02460855316002485</v>
+        <v>0.01533285376430021</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-1.74094354405902</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-8.447619116761068</v>
+        <v>-8.447619116761091</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.05703470133971598</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1782633739162743</v>
+        <v>-0.1782633739162748</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.599982897675529</v>
+        <v>-9.04833219817116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.51022081967599</v>
+        <v>-16.05459138349275</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2536458774475501</v>
+        <v>-0.2646257565792849</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.300777572443147</v>
+        <v>-0.3100424614339357</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.023108169829257</v>
+        <v>5.34974779855294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.036360060472968</v>
+        <v>-1.541486327757139</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1842650574565192</v>
+        <v>0.2030451255438184</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.02317095985998059</v>
+        <v>-0.03694592551040542</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-12.62307460701718</v>
+        <v>-11.76168969665146</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.00640651345874</v>
+        <v>-10.29988374370062</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2898107336426339</v>
+        <v>-0.2722046689796285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2084608224515147</v>
+        <v>-0.2057278805352331</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.916420006648702</v>
+        <v>1.675753523114082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.96387410053545</v>
+        <v>7.059072228099588</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04724347484188155</v>
+        <v>0.04310797133200376</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1925932563617972</v>
+        <v>0.1935776245970425</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.06172985981778</v>
+        <v>-10.04045005816664</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.10894452245896</v>
+        <v>-12.53032348900824</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5575165315656125</v>
+        <v>-0.5274154520032009</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2908518035159137</v>
+        <v>-0.2768150362368493</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.748974360249896</v>
+        <v>2.963143912870834</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.936520260817359</v>
+        <v>2.661900303556294</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2633858426823823</v>
+        <v>0.2792881454157501</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.08851142532705371</v>
+        <v>0.07437484071475213</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-6.464418482643236</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.362037632747915</v>
+        <v>2.362037632747882</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.1261230468432274</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.04802692532406278</v>
+        <v>0.04802692532406209</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-16.34894693996574</v>
+        <v>-14.62843829634752</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.565814805973564</v>
+        <v>-4.245115804934409</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.286320259832387</v>
+        <v>-0.2601619756264791</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1066867046166082</v>
+        <v>-0.08252662272072139</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.815314915990356</v>
+        <v>2.609673955792129</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.646169345046435</v>
+        <v>10.44763442480607</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0394498605325552</v>
+        <v>0.0580493680527443</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2194296061888869</v>
+        <v>0.2327021343137526</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-3.442941560570461</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-4.714987623674094</v>
+        <v>-4.714987623674105</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.1170339862484097</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.1067120387068851</v>
+        <v>-0.1067120387068854</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.236863569881301</v>
+        <v>-8.185986464257471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.867887117566616</v>
+        <v>-10.14067743276111</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.2590134185262843</v>
+        <v>-0.252081753244472</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2082116605785574</v>
+        <v>-0.2143794477512455</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.817184360452417</v>
+        <v>1.718255374020185</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8090754342763903</v>
+        <v>0.6868191312716841</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.0709603048175424</v>
+        <v>0.0624782011440454</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.02064145940216013</v>
+        <v>0.01566250929341776</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>-3.915420928537341</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>-8.658252379268799</v>
+        <v>-8.658252379268788</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1958903928925958</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.2067039363512301</v>
+        <v>-0.2067039363512299</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-7.85200479150049</v>
+        <v>-8.03944485551256</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.48103975815006</v>
+        <v>-13.3279729714582</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3567354163424577</v>
+        <v>-0.3677330650555971</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3006642476060992</v>
+        <v>-0.2983579138200331</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4548973207029737</v>
+        <v>0.204910176108364</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-3.556220449607376</v>
+        <v>-3.62261352755508</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03199051420063152</v>
+        <v>0.01033402440722266</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.09064898397130855</v>
+        <v>-0.09484857797380034</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1104,13 @@
         <v>-4.030700135592907</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-5.169056100473258</v>
+        <v>-5.169056100473246</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>-0.1327886165698864</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>-0.1113835061096278</v>
+        <v>-0.1113835061096276</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.244448735647133</v>
+        <v>-6.326357034639615</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.466309657557109</v>
+        <v>-7.571650717482924</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.1977392612850854</v>
+        <v>-0.1996711184983262</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1553253141168881</v>
+        <v>-0.1585434651598945</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.66974437097797</v>
+        <v>-1.802578041685608</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.697910247774589</v>
+        <v>-2.797151560489563</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>-0.05473741067361538</v>
+        <v>-0.06138283685088858</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.05990935484902529</v>
+        <v>-0.06262575578845561</v>
       </c>
     </row>
     <row r="31">
